--- a/28excelize/Book1.xlsx
+++ b/28excelize/Book1.xlsx
@@ -17,11 +17,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,11 +53,52 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="2.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="false"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -325,11 +365,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="1" style="0" width="10.777777777777779"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="1" style="0" width="13.333333333333334"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="50.17" r="1"/>
+    <row customHeight="true" ht="72" r="1"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>